--- a/model_paths/model_paths_and_files.xlsx
+++ b/model_paths/model_paths_and_files.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP3-4matlab/NORTRIP_model_public_v3_4/model_paths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_paths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B4B108-23A1-7D41-A0D4-4ADA42083ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA337983-B7D5-8F47-A1E6-DA84B19F1785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,16 +128,16 @@
     <t>TRV atgarder Sundsvall 250121_settings.xlsx</t>
   </si>
   <si>
-    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP3-4matlab/NORTRIP_model_public_v3_4/model_parameters/</t>
-  </si>
-  <si>
-    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP3-4matlab/NORTRIP_model_public_v3_4/input_data/</t>
-  </si>
-  <si>
-    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP3-4matlab/NORTRIP_model_public_v3_4/output_data/</t>
-  </si>
-  <si>
-    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP3-4matlab/NORTRIP_model_public_v3_4/output_figures/</t>
+    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/</t>
+  </si>
+  <si>
+    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/input_data/</t>
+  </si>
+  <si>
+    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/output_data/</t>
+  </si>
+  <si>
+    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/output_figures/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_paths/model_paths_and_files.xlsx
+++ b/model_paths/model_paths_and_files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_paths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA337983-B7D5-8F47-A1E6-DA84B19F1785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA91345-F687-D44C-BED2-E6732CB5386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Model input data path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/output_figures/</t>
+  </si>
+  <si>
+    <t>noe</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,6 +639,9 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">

--- a/model_paths/model_paths_and_files.xlsx
+++ b/model_paths/model_paths_and_files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_paths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA91345-F687-D44C-BED2-E6732CB5386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3C02A0-CD60-C345-BCA3-060B094B5FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Model input data path</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/output_figures/</t>
-  </si>
-  <si>
-    <t>noe</t>
   </si>
 </sst>
 </file>
@@ -639,9 +636,6 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">

--- a/model_paths/model_paths_and_files.xlsx
+++ b/model_paths/model_paths_and_files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_paths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3C02A0-CD60-C345-BCA3-060B094B5FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436354AD-1FF5-7C46-94CD-25BE706253C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Model input data path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/output_figures/</t>
+  </si>
+  <si>
+    <t>hello.xlsx</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,6 +639,9 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">

--- a/model_paths/model_paths_and_files.xlsx
+++ b/model_paths/model_paths_and_files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_paths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436354AD-1FF5-7C46-94CD-25BE706253C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C47AD9-3C6C-1E44-9E71-420FE8FA2C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Model input data path</t>
   </si>
@@ -122,25 +122,28 @@
     <t>Road_dust_parameter_table_v9_Denby.xlsx</t>
   </si>
   <si>
-    <t>Road_dust_parameter_table_v11.xlsx</t>
-  </si>
-  <si>
     <t>TRV atgarder Sundsvall 250121_settings.xlsx</t>
   </si>
   <si>
-    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/</t>
-  </si>
-  <si>
-    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/input_data/</t>
-  </si>
-  <si>
-    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/output_data/</t>
-  </si>
-  <si>
-    <t>/Users/sindredenby/Documents/metrologisk/NORTRIP-python/output_figures/</t>
-  </si>
-  <si>
-    <t>hello.xlsx</t>
+    <t>model_parameters/</t>
+  </si>
+  <si>
+    <t>input_data/</t>
+  </si>
+  <si>
+    <t>output_data/</t>
+  </si>
+  <si>
+    <t>output_figures/</t>
+  </si>
+  <si>
+    <t>Road_dust_parameter_table_example.xlsx</t>
+  </si>
+  <si>
+    <t>example_output.xlsx</t>
+  </si>
+  <si>
+    <t>output.txt</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -579,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -587,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -595,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -603,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -624,7 +627,7 @@
         <v>28</v>
       </c>
       <c r="AB6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -641,6 +644,9 @@
       </c>
       <c r="B8" t="s">
         <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">

--- a/model_paths/model_paths_and_files.xlsx
+++ b/model_paths/model_paths_and_files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_paths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prog\NORTRIP-python\model_paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C47AD9-3C6C-1E44-9E71-420FE8FA2C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A2AB80-403B-4DE8-B7C6-24B2A8EDA0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filenames" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Model input data path</t>
   </si>
@@ -80,33 +80,6 @@
     <t>NORTRIP_input_data_example.xlsx</t>
   </si>
   <si>
-    <t>Road_dust_parameter_table_v5.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\brucerd\Downloads\</t>
-  </si>
-  <si>
-    <t>Road_dust_parameter_table_v5_Nina.xlsx</t>
-  </si>
-  <si>
-    <t>Road_dust_parameter_table_v9.xlsx</t>
-  </si>
-  <si>
-    <t>Alternatives</t>
-  </si>
-  <si>
-    <t>Road_dust_parameter_table_v9_test_Hornsgatan.xlsx</t>
-  </si>
-  <si>
-    <t>C:\WORK\NORTRIP\NORTRIP\NORTRIP_model_public_v3_4\model_parameters\</t>
-  </si>
-  <si>
-    <t>C:\WORK\NORTRIP\NORDUST2\Data\Sweden\</t>
-  </si>
-  <si>
-    <t>C:\WORK\NORTRIP\NORTRIP\NORTRIP_model_public_v3_4\ospm\</t>
-  </si>
-  <si>
     <t>C:\WORK\NORTRIP\NORTRIP\NORTRIP_model_public_v3_4\fortran\</t>
   </si>
   <si>
@@ -116,15 +89,6 @@
     <t>C:\Prog\ospm\</t>
   </si>
   <si>
-    <t>Road_dust_parameter_table_v9_E18_crushing.xlsx</t>
-  </si>
-  <si>
-    <t>Road_dust_parameter_table_v9_Denby.xlsx</t>
-  </si>
-  <si>
-    <t>TRV atgarder Sundsvall 250121_settings.xlsx</t>
-  </si>
-  <si>
     <t>model_parameters/</t>
   </si>
   <si>
@@ -143,14 +107,14 @@
     <t>example_output.xlsx</t>
   </si>
   <si>
-    <t>output.txt</t>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,15 +129,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,11 +140,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,18 +167,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -530,21 +480,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.33203125" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -552,85 +502,50 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -638,45 +553,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
